--- a/invert/data/development/lc_invert_field_sed_recon.xlsx
+++ b/invert/data/development/lc_invert_field_sed_recon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>bot_cond</t>
   </si>
@@ -47,9 +47,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>locality</t>
-  </si>
-  <si>
     <t>station</t>
   </si>
   <si>
@@ -59,64 +56,61 @@
     <t>type</t>
   </si>
   <si>
-    <t>sample_mL</t>
-  </si>
-  <si>
-    <t>per_ silt</t>
-  </si>
-  <si>
-    <t>per_clay</t>
-  </si>
-  <si>
-    <t>per_sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per_shell </t>
-  </si>
-  <si>
-    <t>per_detritus</t>
-  </si>
-  <si>
     <t>bot_do</t>
   </si>
   <si>
-    <t>ano_dep_cm</t>
-  </si>
-  <si>
-    <t>utm_x</t>
-  </si>
-  <si>
-    <t>utm_y</t>
-  </si>
-  <si>
     <t>rec_field</t>
   </si>
   <si>
     <t>sed_samp_tray_wt_g</t>
   </si>
   <si>
-    <t>sed_samp_tot_wetwt_g</t>
-  </si>
-  <si>
     <t>sed_samp_tot_drywt_g</t>
   </si>
   <si>
     <t>sed_samp_tot_ashwt_g</t>
   </si>
   <si>
-    <t>sed_samp_vol_ml</t>
-  </si>
-  <si>
     <t>rec_sed</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>total_samp_ml</t>
+  </si>
+  <si>
+    <t>sed_samp_ml</t>
+  </si>
+  <si>
+    <t>org_samp_ml</t>
+  </si>
+  <si>
+    <t>perc_silt</t>
+  </si>
+  <si>
+    <t>perc_clay</t>
+  </si>
+  <si>
+    <t>perc_sand</t>
+  </si>
+  <si>
+    <t>perc_shell</t>
+  </si>
+  <si>
+    <t>perc_det</t>
+  </si>
+  <si>
+    <t>org_samp_tray_wt_g</t>
+  </si>
+  <si>
+    <t>org_samp_tot_drywt_g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,10 +140,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,66 +437,64 @@
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" customWidth="1"/>
-    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" customWidth="1"/>
-    <col min="30" max="30" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
@@ -519,25 +509,22 @@
         <v>3</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
         <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/invert/data/development/lc_invert_field_sed_recon.xlsx
+++ b/invert/data/development/lc_invert_field_sed_recon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>bot_cond</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>org_samp_tot_drywt_g</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
 </sst>
 </file>
@@ -422,108 +425,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/invert/data/development/lc_invert_field_sed_recon.xlsx
+++ b/invert/data/development/lc_invert_field_sed_recon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="48">
   <si>
     <t>bot_cond</t>
   </si>
@@ -108,6 +108,66 @@
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>sed_samp_tot_wetwt_g</t>
+  </si>
+  <si>
+    <t>org_samp_tot_wetwt_g</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
   </si>
 </sst>
 </file>
@@ -143,8 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +508,7 @@
     <col min="29" max="29" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -521,16 +582,3886 @@
         <v>12</v>
       </c>
       <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>1557</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>1178</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>1078</v>
+      </c>
+      <c r="M2">
+        <v>65</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>6.8</v>
+      </c>
+      <c r="S2">
+        <v>22.51</v>
+      </c>
+      <c r="T2">
+        <v>12.3</v>
+      </c>
+      <c r="U2">
+        <v>29.6</v>
+      </c>
+      <c r="V2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>52.488999999999997</v>
+      </c>
+      <c r="Z2">
+        <v>39.405000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>38.856000000000002</v>
+      </c>
+      <c r="AB2">
+        <v>2.375</v>
+      </c>
+      <c r="AC2">
+        <v>35.064999999999998</v>
+      </c>
+      <c r="AD2">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>1608</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>1178</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>1078</v>
+      </c>
+      <c r="M3">
+        <v>65</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>6.8</v>
+      </c>
+      <c r="S3">
+        <v>22.51</v>
+      </c>
+      <c r="T3">
+        <v>12.3</v>
+      </c>
+      <c r="U3">
+        <v>29.6</v>
+      </c>
+      <c r="V3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>52.779000000000003</v>
+      </c>
+      <c r="Z3">
+        <v>33.869</v>
+      </c>
+      <c r="AA3">
+        <v>33.152000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>27.2</v>
+      </c>
+      <c r="AD3">
+        <v>7.899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>1620</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>1178</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>1078</v>
+      </c>
+      <c r="M4">
+        <v>65</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>6.8</v>
+      </c>
+      <c r="S4">
+        <v>22.51</v>
+      </c>
+      <c r="T4">
+        <v>12.3</v>
+      </c>
+      <c r="U4">
+        <v>29.6</v>
+      </c>
+      <c r="V4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4">
+        <v>2.27</v>
+      </c>
+      <c r="Y4">
+        <v>52.527000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>38.115000000000002</v>
+      </c>
+      <c r="AA4">
+        <v>37.503999999999998</v>
+      </c>
+      <c r="AB4">
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="AC4">
+        <v>40.622</v>
+      </c>
+      <c r="AD4">
+        <v>17.957999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>1417</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <v>1178</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>1078</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>7.61</v>
+      </c>
+      <c r="S5">
+        <v>27.05</v>
+      </c>
+      <c r="T5">
+        <v>15.3</v>
+      </c>
+      <c r="U5">
+        <v>28.7</v>
+      </c>
+      <c r="V5">
+        <v>1.25</v>
+      </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>52.350999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="AA5">
+        <v>34.72</v>
+      </c>
+      <c r="AB5">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>42.186999999999998</v>
+      </c>
+      <c r="AD5">
+        <v>31.204000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>1430</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>1178</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>1078</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>7.61</v>
+      </c>
+      <c r="S6">
+        <v>27.05</v>
+      </c>
+      <c r="T6">
+        <v>15.3</v>
+      </c>
+      <c r="U6">
+        <v>28.7</v>
+      </c>
+      <c r="V6">
+        <v>1.25</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>52.281999999999996</v>
+      </c>
+      <c r="Z6">
+        <v>28.89</v>
+      </c>
+      <c r="AA6">
+        <v>27.36</v>
+      </c>
+      <c r="AB6">
+        <v>2.2810000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>40.484999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>28.396000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>1449</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>1178</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>1078</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>7.61</v>
+      </c>
+      <c r="S7">
+        <v>27.05</v>
+      </c>
+      <c r="T7">
+        <v>15.3</v>
+      </c>
+      <c r="U7">
+        <v>28.7</v>
+      </c>
+      <c r="V7">
+        <v>1.25</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>52.268999999999998</v>
+      </c>
+      <c r="Z7">
+        <v>34.35</v>
+      </c>
+      <c r="AA7">
+        <v>33.22</v>
+      </c>
+      <c r="AB7">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>21.925999999999998</v>
+      </c>
+      <c r="AD7">
+        <v>12.753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>1256</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>1178</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>1078</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>10.96</v>
+      </c>
+      <c r="S8">
+        <v>13.61</v>
+      </c>
+      <c r="T8">
+        <v>7.3</v>
+      </c>
+      <c r="U8">
+        <v>28.8</v>
+      </c>
+      <c r="V8">
+        <v>1.53</v>
+      </c>
+      <c r="W8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="Y8">
+        <v>52.308999999999997</v>
+      </c>
+      <c r="Z8">
+        <v>30.69</v>
+      </c>
+      <c r="AA8">
+        <v>29.21</v>
+      </c>
+      <c r="AB8">
+        <v>2.286</v>
+      </c>
+      <c r="AC8">
+        <v>24.413</v>
+      </c>
+      <c r="AD8">
+        <v>14.413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>1307</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <v>1178</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>1078</v>
+      </c>
+      <c r="M9">
+        <v>65</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>10.96</v>
+      </c>
+      <c r="S9">
+        <v>13.61</v>
+      </c>
+      <c r="T9">
+        <v>7.3</v>
+      </c>
+      <c r="U9">
+        <v>28.8</v>
+      </c>
+      <c r="V9">
+        <v>1.53</v>
+      </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>52.707000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>32.11</v>
+      </c>
+      <c r="AA9">
+        <v>30.9</v>
+      </c>
+      <c r="AB9">
+        <v>2.29</v>
+      </c>
+      <c r="AC9">
+        <v>21.51</v>
+      </c>
+      <c r="AD9">
+        <v>12.353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>1317</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>1178</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>1078</v>
+      </c>
+      <c r="M10">
+        <v>65</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>10.96</v>
+      </c>
+      <c r="S10">
+        <v>13.61</v>
+      </c>
+      <c r="T10">
+        <v>7.3</v>
+      </c>
+      <c r="U10">
+        <v>28.8</v>
+      </c>
+      <c r="V10">
+        <v>1.53</v>
+      </c>
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>52.347000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>31.7</v>
+      </c>
+      <c r="AA10">
+        <v>30.31</v>
+      </c>
+      <c r="AB10">
+        <v>2.258</v>
+      </c>
+      <c r="AC10">
+        <v>20.456</v>
+      </c>
+      <c r="AD10">
+        <v>13.066000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>1117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>1178</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>1078</v>
+      </c>
+      <c r="M11">
+        <v>75</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>9.61</v>
+      </c>
+      <c r="S11">
+        <v>13.48</v>
+      </c>
+      <c r="T11">
+        <v>7.2</v>
+      </c>
+      <c r="U11">
+        <v>28.4</v>
+      </c>
+      <c r="V11">
+        <v>1.55</v>
+      </c>
+      <c r="W11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>52.338000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>38.67</v>
+      </c>
+      <c r="AA11">
+        <v>38</v>
+      </c>
+      <c r="AB11">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>15.407999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>11.198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>1130</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>1178</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>1078</v>
+      </c>
+      <c r="M12">
+        <v>75</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>9.61</v>
+      </c>
+      <c r="S12">
+        <v>13.48</v>
+      </c>
+      <c r="T12">
+        <v>7.2</v>
+      </c>
+      <c r="U12">
+        <v>28.4</v>
+      </c>
+      <c r="V12">
+        <v>1.55</v>
+      </c>
+      <c r="W12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12">
+        <v>2.274</v>
+      </c>
+      <c r="Y12">
+        <v>52.33</v>
+      </c>
+      <c r="Z12">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="AA12">
+        <v>31.6</v>
+      </c>
+      <c r="AB12">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AC12">
+        <v>15.731999999999999</v>
+      </c>
+      <c r="AD12">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>1146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13">
+        <v>1178</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>1078</v>
+      </c>
+      <c r="M13">
+        <v>85</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>9.61</v>
+      </c>
+      <c r="S13">
+        <v>13.48</v>
+      </c>
+      <c r="T13">
+        <v>7.2</v>
+      </c>
+      <c r="U13">
+        <v>28.4</v>
+      </c>
+      <c r="V13">
+        <v>1.55</v>
+      </c>
+      <c r="W13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13">
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>52.283999999999999</v>
+      </c>
+      <c r="Z13">
+        <v>36.42</v>
+      </c>
+      <c r="AA13">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="AB13">
+        <v>2.25</v>
+      </c>
+      <c r="AC13">
+        <v>17.635000000000002</v>
+      </c>
+      <c r="AD13">
+        <v>12.417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B14">
+        <v>2018</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>1215</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14">
+        <v>1178</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>1078</v>
+      </c>
+      <c r="M14">
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3.7</v>
+      </c>
+      <c r="S14">
+        <v>30.96</v>
+      </c>
+      <c r="T14">
+        <v>18.3</v>
+      </c>
+      <c r="U14">
+        <v>27.4</v>
+      </c>
+      <c r="V14">
+        <v>2.25</v>
+      </c>
+      <c r="W14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14">
+        <v>2.27</v>
+      </c>
+      <c r="Y14">
+        <v>52.39</v>
+      </c>
+      <c r="Z14">
+        <v>31.02</v>
+      </c>
+      <c r="AA14">
+        <v>29.39</v>
+      </c>
+      <c r="AB14">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="AC14">
+        <v>47.872999999999998</v>
+      </c>
+      <c r="AD14">
+        <v>35.918999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B15">
+        <v>2018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>1230</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>1178</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>1078</v>
+      </c>
+      <c r="M15">
+        <v>70</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>3.7</v>
+      </c>
+      <c r="S15">
+        <v>30.96</v>
+      </c>
+      <c r="T15">
+        <v>18.3</v>
+      </c>
+      <c r="U15">
+        <v>27.4</v>
+      </c>
+      <c r="V15">
+        <v>2.25</v>
+      </c>
+      <c r="W15" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15">
+        <v>2.31</v>
+      </c>
+      <c r="Y15">
+        <v>52.44</v>
+      </c>
+      <c r="Z15">
+        <v>31.14</v>
+      </c>
+      <c r="AA15">
+        <v>29.64</v>
+      </c>
+      <c r="AB15">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="AC15">
+        <v>28.884</v>
+      </c>
+      <c r="AD15">
+        <v>20.135999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <v>1247</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>1178</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>1078</v>
+      </c>
+      <c r="M16">
+        <v>70</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>3.7</v>
+      </c>
+      <c r="S16">
+        <v>30.96</v>
+      </c>
+      <c r="T16">
+        <v>18.3</v>
+      </c>
+      <c r="U16">
+        <v>27.4</v>
+      </c>
+      <c r="V16">
+        <v>2.25</v>
+      </c>
+      <c r="W16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Y16">
+        <v>52.51</v>
+      </c>
+      <c r="Z16">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="AA16">
+        <v>31.72</v>
+      </c>
+      <c r="AB16">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="AC16">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="AD16">
+        <v>26.867999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>1333</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17">
+        <v>1178</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>1078</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>40</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>2.96</v>
+      </c>
+      <c r="S17">
+        <v>28.81</v>
+      </c>
+      <c r="T17">
+        <v>16.8</v>
+      </c>
+      <c r="U17">
+        <v>27.6</v>
+      </c>
+      <c r="V17">
+        <v>1.9</v>
+      </c>
+      <c r="W17" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Y17">
+        <v>52.46</v>
+      </c>
+      <c r="Z17">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="AA17">
+        <v>36.92</v>
+      </c>
+      <c r="AB17">
+        <v>2.347</v>
+      </c>
+      <c r="AC17">
+        <v>98.965999999999994</v>
+      </c>
+      <c r="AD17">
+        <v>80.843000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B18">
+        <v>2018</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>1357</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>1178</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>1078</v>
+      </c>
+      <c r="M18">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>30</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>2.96</v>
+      </c>
+      <c r="S18">
+        <v>28.81</v>
+      </c>
+      <c r="T18">
+        <v>16.8</v>
+      </c>
+      <c r="U18">
+        <v>27.6</v>
+      </c>
+      <c r="V18">
+        <v>1.9</v>
+      </c>
+      <c r="W18" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Y18">
+        <v>52.32</v>
+      </c>
+      <c r="Z18">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="AA18">
+        <v>37.36</v>
+      </c>
+      <c r="AB18">
+        <v>4.5670000000000002</v>
+      </c>
+      <c r="AC18">
+        <v>209.137</v>
+      </c>
+      <c r="AD18">
+        <v>171.60399999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>1400</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>1178</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>1078</v>
+      </c>
+      <c r="M19">
+        <v>-999</v>
+      </c>
+      <c r="N19">
+        <v>-999</v>
+      </c>
+      <c r="O19">
+        <v>-999</v>
+      </c>
+      <c r="P19">
+        <v>-999</v>
+      </c>
+      <c r="Q19">
+        <v>-999</v>
+      </c>
+      <c r="R19">
+        <v>2.96</v>
+      </c>
+      <c r="S19">
+        <v>28.81</v>
+      </c>
+      <c r="T19">
+        <v>16.8</v>
+      </c>
+      <c r="U19">
+        <v>27.6</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y19">
+        <v>52.27</v>
+      </c>
+      <c r="Z19">
+        <v>37.9</v>
+      </c>
+      <c r="AA19">
+        <v>36.97</v>
+      </c>
+      <c r="AB19">
+        <v>4.5969999999999995</v>
+      </c>
+      <c r="AC19">
+        <v>205.523</v>
+      </c>
+      <c r="AD19">
+        <v>173.04500000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>1340</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20">
+        <v>1178</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>1078</v>
+      </c>
+      <c r="M20">
+        <v>60</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>6.87</v>
+      </c>
+      <c r="S20">
+        <v>24.88</v>
+      </c>
+      <c r="T20">
+        <v>14</v>
+      </c>
+      <c r="U20">
+        <v>28.7</v>
+      </c>
+      <c r="V20">
+        <v>1.49</v>
+      </c>
+      <c r="W20" t="s">
+        <v>34</v>
+      </c>
+      <c r="X20">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y20">
+        <v>52.276000000000003</v>
+      </c>
+      <c r="Z20">
+        <v>37.768000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>37.395000000000003</v>
+      </c>
+      <c r="AB20">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AC20">
+        <v>25.716000000000001</v>
+      </c>
+      <c r="AD20">
+        <v>17.096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>1350</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21">
+        <v>1178</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>1078</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>6.87</v>
+      </c>
+      <c r="S21">
+        <v>24.88</v>
+      </c>
+      <c r="T21">
+        <v>14</v>
+      </c>
+      <c r="U21">
+        <v>28.7</v>
+      </c>
+      <c r="V21">
+        <v>1.49</v>
+      </c>
+      <c r="W21" t="s">
+        <v>34</v>
+      </c>
+      <c r="X21">
+        <v>2.262</v>
+      </c>
+      <c r="Y21">
+        <v>52.37</v>
+      </c>
+      <c r="Z21">
+        <v>33.353000000000002</v>
+      </c>
+      <c r="AA21">
+        <v>32.277999999999999</v>
+      </c>
+      <c r="AB21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AC21">
+        <v>20.001999999999999</v>
+      </c>
+      <c r="AD21">
+        <v>12.249000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>1357</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>1178</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>1078</v>
+      </c>
+      <c r="M22">
+        <v>60</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>6.87</v>
+      </c>
+      <c r="S22">
+        <v>24.88</v>
+      </c>
+      <c r="T22">
+        <v>14</v>
+      </c>
+      <c r="U22">
+        <v>28.7</v>
+      </c>
+      <c r="V22">
+        <v>1.49</v>
+      </c>
+      <c r="W22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22">
+        <v>2.234</v>
+      </c>
+      <c r="Y22">
+        <v>52.545000000000002</v>
+      </c>
+      <c r="Z22">
+        <v>28.08</v>
+      </c>
+      <c r="AA22">
+        <v>26.669</v>
+      </c>
+      <c r="AB22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AC22">
+        <v>25.123999999999999</v>
+      </c>
+      <c r="AD22">
+        <v>16.881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B23">
+        <v>2018</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>935</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23">
+        <v>1178</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>1078</v>
+      </c>
+      <c r="M23">
+        <v>45</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>50</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>10.57</v>
+      </c>
+      <c r="S23">
+        <v>15.56</v>
+      </c>
+      <c r="T23">
+        <v>8.4</v>
+      </c>
+      <c r="U23">
+        <v>28.6</v>
+      </c>
+      <c r="V23">
+        <v>1.45</v>
+      </c>
+      <c r="W23" t="s">
+        <v>34</v>
+      </c>
+      <c r="X23">
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="Y23">
+        <v>52.329000000000001</v>
+      </c>
+      <c r="Z23">
+        <v>37.055999999999997</v>
+      </c>
+      <c r="AA23">
+        <v>36.277000000000001</v>
+      </c>
+      <c r="AB23">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="AC23">
+        <v>32.51</v>
+      </c>
+      <c r="AD23">
+        <v>24.798999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B24">
+        <v>2018</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24">
+        <v>947</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>1178</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>1078</v>
+      </c>
+      <c r="M24">
+        <v>45</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>50</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>10.57</v>
+      </c>
+      <c r="S24">
+        <v>15.56</v>
+      </c>
+      <c r="T24">
+        <v>8.4</v>
+      </c>
+      <c r="U24">
+        <v>28.6</v>
+      </c>
+      <c r="V24">
+        <v>1.45</v>
+      </c>
+      <c r="W24" t="s">
+        <v>34</v>
+      </c>
+      <c r="X24">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Y24">
+        <v>52.365000000000002</v>
+      </c>
+      <c r="Z24">
+        <v>37.984000000000002</v>
+      </c>
+      <c r="AA24">
+        <v>37.555999999999997</v>
+      </c>
+      <c r="AB24">
+        <v>2.306</v>
+      </c>
+      <c r="AC24">
+        <v>42.136000000000003</v>
+      </c>
+      <c r="AD24">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B25">
+        <v>2018</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>1007</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <v>1178</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>1078</v>
+      </c>
+      <c r="M25">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>50</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>10.57</v>
+      </c>
+      <c r="S25">
+        <v>15.56</v>
+      </c>
+      <c r="T25">
+        <v>8.4</v>
+      </c>
+      <c r="U25">
+        <v>28.6</v>
+      </c>
+      <c r="V25">
+        <v>1.45</v>
+      </c>
+      <c r="W25" t="s">
+        <v>34</v>
+      </c>
+      <c r="X25">
+        <v>2.25</v>
+      </c>
+      <c r="Y25">
+        <v>52.484999999999999</v>
+      </c>
+      <c r="Z25">
+        <v>40.46</v>
+      </c>
+      <c r="AA25">
+        <v>39.959000000000003</v>
+      </c>
+      <c r="AB25">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="AC25">
+        <v>26.074999999999999</v>
+      </c>
+      <c r="AD25">
+        <v>17.981999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>837</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26">
+        <v>1178</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>1078</v>
+      </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>50</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>10.33</v>
+      </c>
+      <c r="S26">
+        <v>13.13</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>28.5</v>
+      </c>
+      <c r="V26">
+        <v>1.23</v>
+      </c>
+      <c r="W26" t="s">
+        <v>34</v>
+      </c>
+      <c r="X26">
+        <v>2.3180000000000001</v>
+      </c>
+      <c r="Y26">
+        <v>52.323</v>
+      </c>
+      <c r="Z26">
+        <v>40.856000000000002</v>
+      </c>
+      <c r="AA26">
+        <v>40.612000000000002</v>
+      </c>
+      <c r="AB26">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="AC26">
+        <v>64.682000000000002</v>
+      </c>
+      <c r="AD26">
+        <v>49.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>853</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>1178</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>1078</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <v>20</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>10.33</v>
+      </c>
+      <c r="S27">
+        <v>13.13</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>28.5</v>
+      </c>
+      <c r="V27">
+        <v>1.23</v>
+      </c>
+      <c r="W27" t="s">
+        <v>34</v>
+      </c>
+      <c r="X27">
+        <v>2.3010000000000002</v>
+      </c>
+      <c r="Y27">
+        <v>52.396999999999998</v>
+      </c>
+      <c r="Z27">
+        <v>41.363999999999997</v>
+      </c>
+      <c r="AA27">
+        <v>41.048999999999999</v>
+      </c>
+      <c r="AB27">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="AC27">
+        <v>63.279000000000003</v>
+      </c>
+      <c r="AD27">
+        <v>48.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B28">
+        <v>2018</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>902</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>1178</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>1078</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>60</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>10.33</v>
+      </c>
+      <c r="S28">
+        <v>13.13</v>
+      </c>
+      <c r="T28">
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <v>28.5</v>
+      </c>
+      <c r="V28">
+        <v>1.23</v>
+      </c>
+      <c r="W28" t="s">
+        <v>34</v>
+      </c>
+      <c r="X28">
+        <v>2.254</v>
+      </c>
+      <c r="Y28">
+        <v>52.326000000000001</v>
+      </c>
+      <c r="Z28">
+        <v>40.521999999999998</v>
+      </c>
+      <c r="AA28">
+        <v>40.279000000000003</v>
+      </c>
+      <c r="AB28">
+        <v>2.31</v>
+      </c>
+      <c r="AC28">
+        <v>50.314999999999998</v>
+      </c>
+      <c r="AD28">
+        <v>36.491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B29">
+        <v>2018</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29">
+        <v>1305</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29">
+        <v>1178</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>1078</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>50</v>
+      </c>
+      <c r="P29">
+        <v>25</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>4.16</v>
+      </c>
+      <c r="S29">
+        <v>25.17</v>
+      </c>
+      <c r="T29">
+        <v>14.4</v>
+      </c>
+      <c r="U29">
+        <v>27.7</v>
+      </c>
+      <c r="V29">
+        <v>1.5</v>
+      </c>
+      <c r="W29" t="s">
+        <v>34</v>
+      </c>
+      <c r="X29">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>52.293999999999997</v>
+      </c>
+      <c r="Z29">
+        <v>39.912999999999997</v>
+      </c>
+      <c r="AA29">
+        <v>39.438000000000002</v>
+      </c>
+      <c r="AB29">
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="AC29">
+        <v>87.084999999999994</v>
+      </c>
+      <c r="AD29">
+        <v>57.981000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B30">
+        <v>2018</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <v>1310</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30">
+        <v>1178</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>1078</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>60</v>
+      </c>
+      <c r="P30">
+        <v>20</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>4.16</v>
+      </c>
+      <c r="S30">
+        <v>25.17</v>
+      </c>
+      <c r="T30">
+        <v>14.4</v>
+      </c>
+      <c r="U30">
+        <v>27.7</v>
+      </c>
+      <c r="V30">
+        <v>1.5</v>
+      </c>
+      <c r="W30" t="s">
+        <v>34</v>
+      </c>
+      <c r="X30">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="Y30">
+        <v>52.290999999999997</v>
+      </c>
+      <c r="Z30">
+        <v>40.503</v>
+      </c>
+      <c r="AA30">
+        <v>39.887999999999998</v>
+      </c>
+      <c r="AB30">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="AC30">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="AD30">
+        <v>42.816000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B31">
+        <v>2018</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31">
+        <v>1320</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31">
+        <v>1178</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>1078</v>
+      </c>
+      <c r="M31">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>40</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>4.16</v>
+      </c>
+      <c r="S31">
+        <v>25.17</v>
+      </c>
+      <c r="T31">
+        <v>14.4</v>
+      </c>
+      <c r="U31">
+        <v>27.7</v>
+      </c>
+      <c r="V31">
+        <v>1.5</v>
+      </c>
+      <c r="W31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X31">
+        <v>2.3109999999999999</v>
+      </c>
+      <c r="Y31">
+        <v>52.369</v>
+      </c>
+      <c r="Z31">
+        <v>38.533000000000001</v>
+      </c>
+      <c r="AA31">
+        <v>37.764000000000003</v>
+      </c>
+      <c r="AB31">
+        <v>2.254</v>
+      </c>
+      <c r="AC31">
+        <v>92.123999999999995</v>
+      </c>
+      <c r="AD31">
+        <v>66.968999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B32">
+        <v>2018</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32">
+        <v>1140</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32">
+        <v>1178</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>1078</v>
+      </c>
+      <c r="M32">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>20</v>
+      </c>
+      <c r="P32">
+        <v>20</v>
+      </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+      <c r="R32">
+        <v>1.48</v>
+      </c>
+      <c r="S32">
+        <v>29.86</v>
+      </c>
+      <c r="T32">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="U32">
+        <v>27.7</v>
+      </c>
+      <c r="V32">
+        <v>1.48</v>
+      </c>
+      <c r="W32" t="s">
+        <v>34</v>
+      </c>
+      <c r="X32">
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>52.313000000000002</v>
+      </c>
+      <c r="Z32">
+        <v>38.472999999999999</v>
+      </c>
+      <c r="AA32">
+        <v>38.033999999999999</v>
+      </c>
+      <c r="AB32">
+        <v>2.327</v>
+      </c>
+      <c r="AC32">
+        <v>53.652999999999999</v>
+      </c>
+      <c r="AD32">
+        <v>41.194000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B33">
+        <v>2018</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>1147</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <v>1178</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>1078</v>
+      </c>
+      <c r="M33">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>20</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>1.48</v>
+      </c>
+      <c r="S33">
+        <v>29.86</v>
+      </c>
+      <c r="T33">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="U33">
+        <v>27.7</v>
+      </c>
+      <c r="V33">
+        <v>1.48</v>
+      </c>
+      <c r="W33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X33">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="Y33">
+        <v>52.283000000000001</v>
+      </c>
+      <c r="Z33">
+        <v>38.161999999999999</v>
+      </c>
+      <c r="AA33">
+        <v>37.347999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>2.35</v>
+      </c>
+      <c r="AC33">
+        <v>46.738999999999997</v>
+      </c>
+      <c r="AD33">
+        <v>21.588000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B34">
+        <v>2018</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>1201</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <v>1178</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>1078</v>
+      </c>
+      <c r="M34">
+        <v>45</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+      <c r="P34">
+        <v>20</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>1.48</v>
+      </c>
+      <c r="S34">
+        <v>29.86</v>
+      </c>
+      <c r="T34">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="U34">
+        <v>27.7</v>
+      </c>
+      <c r="V34">
+        <v>1.48</v>
+      </c>
+      <c r="W34" t="s">
+        <v>34</v>
+      </c>
+      <c r="X34">
+        <v>2.3210000000000002</v>
+      </c>
+      <c r="Y34">
+        <v>52.348999999999997</v>
+      </c>
+      <c r="Z34">
+        <v>39.972000000000001</v>
+      </c>
+      <c r="AA34">
+        <v>39.345999999999997</v>
+      </c>
+      <c r="AB34">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="AC34">
+        <v>80.149000000000001</v>
+      </c>
+      <c r="AD34">
+        <v>68.075000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35">
+        <v>1509</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>1178</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
+        <v>1078</v>
+      </c>
+      <c r="M35">
+        <v>80</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>7.76</v>
+      </c>
+      <c r="S35">
+        <v>13.47</v>
+      </c>
+      <c r="T35">
+        <v>7.1</v>
+      </c>
+      <c r="U35">
+        <v>28.9</v>
+      </c>
+      <c r="V35">
+        <v>1.35</v>
+      </c>
+      <c r="W35" t="s">
+        <v>34</v>
+      </c>
+      <c r="X35">
+        <v>2.286</v>
+      </c>
+      <c r="Y35">
+        <v>52.387</v>
+      </c>
+      <c r="Z35">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="AA35">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="AB35">
+        <v>2.2639999999999998</v>
+      </c>
+      <c r="AC35">
+        <v>22.913</v>
+      </c>
+      <c r="AD35">
+        <v>15.766999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36">
+        <v>1525</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <v>1178</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>1078</v>
+      </c>
+      <c r="M36">
+        <v>75</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="R36">
+        <v>7.76</v>
+      </c>
+      <c r="S36">
+        <v>13.47</v>
+      </c>
+      <c r="T36">
+        <v>7.1</v>
+      </c>
+      <c r="U36">
+        <v>28.9</v>
+      </c>
+      <c r="V36">
+        <v>1.35</v>
+      </c>
+      <c r="W36" t="s">
+        <v>34</v>
+      </c>
+      <c r="X36">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="Y36">
+        <v>52.337000000000003</v>
+      </c>
+      <c r="Z36">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="AA36">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="AB36">
+        <v>2.262</v>
+      </c>
+      <c r="AC36">
+        <v>33.615000000000002</v>
+      </c>
+      <c r="AD36">
+        <v>16.212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B37">
+        <v>2018</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37">
+        <v>1537</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <v>1178</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>1078</v>
+      </c>
+      <c r="M37">
+        <v>65</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>20</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>7.76</v>
+      </c>
+      <c r="S37">
+        <v>13.47</v>
+      </c>
+      <c r="T37">
+        <v>7.1</v>
+      </c>
+      <c r="U37">
+        <v>28.9</v>
+      </c>
+      <c r="V37">
+        <v>1.35</v>
+      </c>
+      <c r="W37" t="s">
+        <v>34</v>
+      </c>
+      <c r="X37">
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="Y37">
+        <v>52.357999999999997</v>
+      </c>
+      <c r="Z37">
+        <v>36</v>
+      </c>
+      <c r="AA37">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="AB37">
+        <v>2.242</v>
+      </c>
+      <c r="AC37">
+        <v>104.414</v>
+      </c>
+      <c r="AD37">
+        <v>79.212999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <v>1213</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38">
+        <v>1178</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
+        <v>1078</v>
+      </c>
+      <c r="M38">
+        <v>70</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>20</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>8.9</v>
+      </c>
+      <c r="S38">
+        <v>10.64</v>
+      </c>
+      <c r="T38">
+        <v>5.5</v>
+      </c>
+      <c r="U38">
+        <v>29</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>34</v>
+      </c>
+      <c r="X38">
+        <v>2.294</v>
+      </c>
+      <c r="Y38">
+        <v>52.35</v>
+      </c>
+      <c r="Z38">
+        <v>34.17</v>
+      </c>
+      <c r="AA38">
+        <v>33.19</v>
+      </c>
+      <c r="AB38">
+        <v>2.254</v>
+      </c>
+      <c r="AC38">
+        <v>22.853000000000002</v>
+      </c>
+      <c r="AD38">
+        <v>16.140999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B39">
+        <v>2018</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <v>1228</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39">
+        <v>1178</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39">
+        <v>1078</v>
+      </c>
+      <c r="M39">
+        <v>65</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>30</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>8.9</v>
+      </c>
+      <c r="S39">
+        <v>10.64</v>
+      </c>
+      <c r="T39">
+        <v>5.5</v>
+      </c>
+      <c r="U39">
+        <v>29</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
+        <v>34</v>
+      </c>
+      <c r="X39">
+        <v>2.2829999999999999</v>
+      </c>
+      <c r="Y39">
+        <v>52.332999999999998</v>
+      </c>
+      <c r="Z39">
+        <v>37.17</v>
+      </c>
+      <c r="AA39">
+        <v>36.53</v>
+      </c>
+      <c r="AB39">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="AC39">
+        <v>21.19</v>
+      </c>
+      <c r="AD39">
+        <v>13.135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B40">
+        <v>2018</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40">
+        <v>1238</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40">
+        <v>1178</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <v>1078</v>
+      </c>
+      <c r="M40">
+        <v>85</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>10</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>8.9</v>
+      </c>
+      <c r="S40">
+        <v>10.64</v>
+      </c>
+      <c r="T40">
+        <v>5.5</v>
+      </c>
+      <c r="U40">
+        <v>29</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
+        <v>34</v>
+      </c>
+      <c r="X40">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="Y40">
+        <v>52.337000000000003</v>
+      </c>
+      <c r="Z40">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="AA40">
+        <v>35.75</v>
+      </c>
+      <c r="AB40">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="AC40">
+        <v>9.6010000000000009</v>
+      </c>
+      <c r="AD40">
+        <v>5.5670000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B41">
+        <v>2018</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41">
+        <v>1022</v>
+      </c>
+      <c r="I41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41">
+        <v>1178</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>1078</v>
+      </c>
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>30</v>
+      </c>
+      <c r="P41">
+        <v>10</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>8.81</v>
+      </c>
+      <c r="S41">
+        <v>18.38</v>
+      </c>
+      <c r="T41">
+        <v>10.1</v>
+      </c>
+      <c r="U41">
+        <v>28.7</v>
+      </c>
+      <c r="V41">
+        <v>1.3</v>
+      </c>
+      <c r="W41" t="s">
+        <v>34</v>
+      </c>
+      <c r="X41">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Y41">
+        <v>52.37</v>
+      </c>
+      <c r="Z41">
+        <v>36.21</v>
+      </c>
+      <c r="AA41">
+        <v>35.36</v>
+      </c>
+      <c r="AB41">
+        <v>2.278</v>
+      </c>
+      <c r="AC41">
+        <v>18.43</v>
+      </c>
+      <c r="AD41">
+        <v>12.673999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B42">
+        <v>2018</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42">
+        <v>1040</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42">
+        <v>1178</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42">
+        <v>1078</v>
+      </c>
+      <c r="M42">
+        <v>45</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <v>30</v>
+      </c>
+      <c r="P42">
+        <v>20</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>8.81</v>
+      </c>
+      <c r="S42">
+        <v>18.38</v>
+      </c>
+      <c r="T42">
+        <v>10.1</v>
+      </c>
+      <c r="U42">
+        <v>28.7</v>
+      </c>
+      <c r="V42">
+        <v>1.3</v>
+      </c>
+      <c r="W42" t="s">
+        <v>34</v>
+      </c>
+      <c r="X42">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>52.371000000000002</v>
+      </c>
+      <c r="Z42">
+        <v>35.520000000000003</v>
+      </c>
+      <c r="AA42">
+        <v>34.61</v>
+      </c>
+      <c r="AB42">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="AC42">
+        <v>25.462</v>
+      </c>
+      <c r="AD42">
+        <v>18.530999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B43">
+        <v>2018</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43">
+        <v>1053</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43">
+        <v>1178</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+      <c r="L43">
+        <v>1078</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="O43">
+        <v>20</v>
+      </c>
+      <c r="P43">
+        <v>10</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>8.81</v>
+      </c>
+      <c r="S43">
+        <v>18.38</v>
+      </c>
+      <c r="T43">
+        <v>10.1</v>
+      </c>
+      <c r="U43">
+        <v>28.7</v>
+      </c>
+      <c r="V43">
+        <v>1.3</v>
+      </c>
+      <c r="W43" t="s">
+        <v>34</v>
+      </c>
+      <c r="X43">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>52.277000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="AA43">
+        <v>31.68</v>
+      </c>
+      <c r="AB43">
+        <v>2.2810000000000001</v>
+      </c>
+      <c r="AC43">
+        <v>32.131999999999998</v>
+      </c>
+      <c r="AD43">
+        <v>22.039000000000001</v>
       </c>
     </row>
   </sheetData>
